--- a/Data source/Israel data/阳性指数相关/每日新增阳性.xlsx
+++ b/Data source/Israel data/阳性指数相关/每日新增阳性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17920" windowHeight="16440"/>
+    <workbookView windowWidth="17920" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="מאומתים חדשים - יומי..." sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>当日新增</t>
-  </si>
-  <si>
-    <t>ממוצע נע 7</t>
   </si>
   <si>
     <t>累计阳性数量</t>
@@ -1350,12 +1347,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1371,94 +1368,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1470,7 +1384,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,10 +1406,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1500,8 +1428,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1514,8 +1467,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,7 +1514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,13 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,13 +1574,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,19 +1628,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,7 +1676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,91 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,22 +1721,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1761,7 +1730,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1782,79 +1792,56 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1863,115 +1850,111 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2355,6176 +2338,4855 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D440"/>
+  <dimension ref="A1:C440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="12.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.9285714285714" customWidth="1"/>
+    <col min="3" max="3" width="14.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>9</v>
       </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>33</v>
       </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>19</v>
       </c>
-      <c r="C30" s="1">
-        <v>8</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>22</v>
       </c>
-      <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>35</v>
       </c>
-      <c r="C32" s="1">
-        <v>13</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>29</v>
       </c>
-      <c r="C33" s="1">
-        <v>18</v>
-      </c>
-      <c r="D33">
+      <c r="C33">
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>39</v>
       </c>
-      <c r="C34" s="1">
-        <v>21</v>
-      </c>
-      <c r="D34">
+      <c r="C34">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>73</v>
       </c>
-      <c r="C35" s="1">
-        <v>25</v>
-      </c>
-      <c r="D35">
+      <c r="C35">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>94</v>
       </c>
-      <c r="C36" s="1">
-        <v>35</v>
-      </c>
-      <c r="D36">
+      <c r="C36">
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>125</v>
       </c>
-      <c r="C37" s="1">
-        <v>44</v>
-      </c>
-      <c r="D37">
+      <c r="C37">
         <v>514</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>136</v>
       </c>
-      <c r="C38" s="1">
-        <v>59</v>
-      </c>
-      <c r="D38">
+      <c r="C38">
         <v>650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>168</v>
       </c>
-      <c r="C39" s="1">
-        <v>75</v>
-      </c>
-      <c r="D39">
+      <c r="C39">
         <v>818</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>210</v>
       </c>
-      <c r="C40" s="1">
-        <v>94</v>
-      </c>
-      <c r="D40">
+      <c r="C40">
         <v>1028</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>254</v>
       </c>
-      <c r="C41" s="1">
-        <v>120</v>
-      </c>
-      <c r="D41">
+      <c r="C41">
         <v>1282</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>352</v>
       </c>
-      <c r="C42" s="1">
-        <v>151</v>
-      </c>
-      <c r="D42">
+      <c r="C42">
         <v>1634</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>423</v>
       </c>
-      <c r="C43" s="1">
-        <v>191</v>
-      </c>
-      <c r="D43">
+      <c r="C43">
         <v>2057</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>425</v>
       </c>
-      <c r="C44" s="1">
-        <v>238</v>
-      </c>
-      <c r="D44">
+      <c r="C44">
         <v>2482</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>520</v>
       </c>
-      <c r="C45" s="1">
-        <v>281</v>
-      </c>
-      <c r="D45">
+      <c r="C45">
         <v>3002</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>434</v>
       </c>
-      <c r="C46" s="1">
-        <v>336</v>
-      </c>
-      <c r="D46">
+      <c r="C46">
         <v>3436</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>479</v>
       </c>
-      <c r="C47" s="1">
-        <v>374</v>
-      </c>
-      <c r="D47">
+      <c r="C47">
         <v>3915</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>531</v>
       </c>
-      <c r="C48" s="1">
-        <v>412</v>
-      </c>
-      <c r="D48">
+      <c r="C48">
         <v>4446</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>548</v>
       </c>
-      <c r="C49" s="1">
-        <v>452</v>
-      </c>
-      <c r="D49">
+      <c r="C49">
         <v>4994</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>738</v>
       </c>
-      <c r="C50" s="1">
-        <v>480</v>
-      </c>
-      <c r="D50">
+      <c r="C50">
         <v>5732</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>703</v>
       </c>
-      <c r="C51" s="1">
-        <v>525</v>
-      </c>
-      <c r="D51">
+      <c r="C51">
         <v>6428</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>719</v>
       </c>
-      <c r="C52" s="1">
-        <v>563</v>
-      </c>
-      <c r="D52">
+      <c r="C52">
         <v>7147</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>598</v>
       </c>
-      <c r="C53" s="1">
-        <v>592</v>
-      </c>
-      <c r="D53">
+      <c r="C53">
         <v>7745</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>429</v>
       </c>
-      <c r="C54" s="1">
-        <v>615</v>
-      </c>
-      <c r="D54">
+      <c r="C54">
         <v>8174</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>583</v>
       </c>
-      <c r="C55" s="1">
-        <v>608</v>
-      </c>
-      <c r="D55">
+      <c r="C55">
         <v>8757</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>450</v>
       </c>
-      <c r="C56" s="1">
-        <v>615</v>
-      </c>
-      <c r="D56">
+      <c r="C56">
         <v>9207</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>377</v>
       </c>
-      <c r="C57" s="1">
-        <v>601</v>
-      </c>
-      <c r="D57">
+      <c r="C57">
         <v>9584</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>339</v>
       </c>
-      <c r="C58" s="1">
-        <v>550</v>
-      </c>
-      <c r="D58">
+      <c r="C58">
         <v>9923</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>343</v>
       </c>
-      <c r="C59" s="1">
-        <v>499</v>
-      </c>
-      <c r="D59">
+      <c r="C59">
         <v>10266</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>359</v>
       </c>
-      <c r="C60" s="1">
-        <v>445</v>
-      </c>
-      <c r="D60">
+      <c r="C60">
         <v>10625</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>345</v>
       </c>
-      <c r="C61" s="1">
-        <v>411</v>
-      </c>
-      <c r="D61">
+      <c r="C61">
         <v>10970</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>552</v>
       </c>
-      <c r="C62" s="1">
-        <v>399</v>
-      </c>
-      <c r="D62">
+      <c r="C62">
         <v>11522</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>438</v>
       </c>
-      <c r="C63" s="1">
-        <v>395</v>
-      </c>
-      <c r="D63">
+      <c r="C63">
         <v>11960</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>399</v>
       </c>
-      <c r="C64" s="1">
-        <v>393</v>
-      </c>
-      <c r="D64">
+      <c r="C64">
         <v>12359</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>311</v>
       </c>
-      <c r="C65" s="1">
-        <v>396</v>
-      </c>
-      <c r="D65">
+      <c r="C65">
         <v>12670</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>297</v>
       </c>
-      <c r="C66" s="1">
-        <v>392</v>
-      </c>
-      <c r="D66">
+      <c r="C66">
         <v>12967</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>298</v>
       </c>
-      <c r="C67" s="1">
-        <v>385</v>
-      </c>
-      <c r="D67">
+      <c r="C67">
         <v>13265</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>291</v>
       </c>
-      <c r="C68" s="1">
-        <v>377</v>
-      </c>
-      <c r="D68">
+      <c r="C68">
         <v>13556</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>276</v>
       </c>
-      <c r="C69" s="1">
-        <v>369</v>
-      </c>
-      <c r="D69">
+      <c r="C69">
         <v>13832</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>299</v>
       </c>
-      <c r="C70" s="1">
-        <v>330</v>
-      </c>
-      <c r="D70">
+      <c r="C70">
         <v>14131</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>282</v>
       </c>
-      <c r="C71" s="1">
-        <v>310</v>
-      </c>
-      <c r="D71">
+      <c r="C71">
         <v>14413</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>225</v>
       </c>
-      <c r="C72" s="1">
-        <v>293</v>
-      </c>
-      <c r="D72">
+      <c r="C72">
         <v>14638</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>276</v>
       </c>
-      <c r="C73" s="1">
-        <v>281</v>
-      </c>
-      <c r="D73">
+      <c r="C73">
         <v>14914</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>249</v>
       </c>
-      <c r="C74" s="1">
-        <v>278</v>
-      </c>
-      <c r="D74">
+      <c r="C74">
         <v>15163</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>159</v>
       </c>
-      <c r="C75" s="1">
-        <v>271</v>
-      </c>
-      <c r="D75">
+      <c r="C75">
         <v>15322</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>83</v>
       </c>
-      <c r="C76" s="1">
-        <v>252</v>
-      </c>
-      <c r="D76">
+      <c r="C76">
         <v>15405</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>127</v>
       </c>
-      <c r="C77" s="1">
-        <v>224</v>
-      </c>
-      <c r="D77">
+      <c r="C77">
         <v>15532</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>161</v>
       </c>
-      <c r="C78" s="1">
-        <v>200</v>
-      </c>
-      <c r="D78">
+      <c r="C78">
         <v>15693</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>82</v>
       </c>
-      <c r="C79" s="1">
-        <v>182</v>
-      </c>
-      <c r="D79">
+      <c r="C79">
         <v>15775</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>142</v>
       </c>
-      <c r="C80" s="1">
-        <v>162</v>
-      </c>
-      <c r="D80">
+      <c r="C80">
         <v>15917</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>116</v>
       </c>
-      <c r="C81" s="1">
-        <v>143</v>
-      </c>
-      <c r="D81">
+      <c r="C81">
         <v>16033</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>57</v>
       </c>
-      <c r="C82" s="1">
-        <v>124</v>
-      </c>
-      <c r="D82">
+      <c r="C82">
         <v>16090</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>27</v>
       </c>
-      <c r="C83" s="1">
-        <v>109</v>
-      </c>
-      <c r="D83">
+      <c r="C83">
         <v>16117</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>55</v>
       </c>
-      <c r="C84" s="1">
-        <v>101</v>
-      </c>
-      <c r="D84">
+      <c r="C84">
         <v>16172</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>33</v>
       </c>
-      <c r="C85" s="1">
-        <v>91</v>
-      </c>
-      <c r="D85">
+      <c r="C85">
         <v>16205</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>65</v>
       </c>
-      <c r="C86" s="1">
-        <v>73</v>
-      </c>
-      <c r="D86">
+      <c r="C86">
         <v>16270</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>61</v>
       </c>
-      <c r="C87" s="1">
-        <v>70</v>
-      </c>
-      <c r="D87">
+      <c r="C87">
         <v>16331</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>33</v>
       </c>
-      <c r="C88" s="1">
-        <v>59</v>
-      </c>
-      <c r="D88">
+      <c r="C88">
         <v>16364</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>20</v>
       </c>
-      <c r="C89" s="1">
-        <v>47</v>
-      </c>
-      <c r="D89">
+      <c r="C89">
         <v>16384</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>29</v>
       </c>
-      <c r="C90" s="1">
-        <v>42</v>
-      </c>
-      <c r="D90">
+      <c r="C90">
         <v>16413</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>39</v>
       </c>
-      <c r="C91" s="1">
-        <v>42</v>
-      </c>
-      <c r="D91">
+      <c r="C91">
         <v>16452</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>23</v>
       </c>
-      <c r="C92" s="1">
-        <v>40</v>
-      </c>
-      <c r="D92">
+      <c r="C92">
         <v>16475</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>39</v>
       </c>
-      <c r="C93" s="1">
-        <v>38</v>
-      </c>
-      <c r="D93">
+      <c r="C93">
         <v>16514</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>22</v>
       </c>
-      <c r="C94" s="1">
-        <v>34</v>
-      </c>
-      <c r="D94">
+      <c r="C94">
         <v>16536</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>12</v>
       </c>
-      <c r="C95" s="1">
-        <v>29</v>
-      </c>
-      <c r="D95">
+      <c r="C95">
         <v>16548</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="C96" s="1">
-        <v>26</v>
-      </c>
-      <c r="D96">
+      <c r="C96">
         <v>16553</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>15</v>
       </c>
-      <c r="C97" s="1">
-        <v>24</v>
-      </c>
-      <c r="D97">
+      <c r="C97">
         <v>16568</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>27</v>
       </c>
-      <c r="C98" s="1">
-        <v>22</v>
-      </c>
-      <c r="D98">
+      <c r="C98">
         <v>16595</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>22</v>
       </c>
-      <c r="C99" s="1">
-        <v>20</v>
-      </c>
-      <c r="D99">
+      <c r="C99">
         <v>16617</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>15</v>
       </c>
-      <c r="C100" s="1">
-        <v>20</v>
-      </c>
-      <c r="D100">
+      <c r="C100">
         <v>16632</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>17</v>
       </c>
-      <c r="C101" s="1">
-        <v>16</v>
-      </c>
-      <c r="D101">
+      <c r="C101">
         <v>16649</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>19</v>
       </c>
-      <c r="C102" s="1">
-        <v>16</v>
-      </c>
-      <c r="D102">
+      <c r="C102">
         <v>16668</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
-      <c r="C103" s="1">
-        <v>17</v>
-      </c>
-      <c r="D103">
+      <c r="C103">
         <v>16673</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>13</v>
       </c>
-      <c r="C104" s="1">
-        <v>17</v>
-      </c>
-      <c r="D104">
+      <c r="C104">
         <v>16686</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>22</v>
       </c>
-      <c r="C105" s="1">
-        <v>16</v>
-      </c>
-      <c r="D105">
+      <c r="C105">
         <v>16708</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>50</v>
       </c>
-      <c r="C106" s="1">
-        <v>16</v>
-      </c>
-      <c r="D106">
+      <c r="C106">
         <v>16758</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>40</v>
       </c>
-      <c r="C107" s="1">
-        <v>20</v>
-      </c>
-      <c r="D107">
+      <c r="C107">
         <v>16798</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>77</v>
       </c>
-      <c r="C108" s="1">
-        <v>23</v>
-      </c>
-      <c r="D108">
+      <c r="C108">
         <v>16875</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>113</v>
       </c>
-      <c r="C109" s="1">
-        <v>32</v>
-      </c>
-      <c r="D109">
+      <c r="C109">
         <v>16988</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>29</v>
       </c>
-      <c r="C110" s="1">
-        <v>45</v>
-      </c>
-      <c r="D110">
+      <c r="C110">
         <v>17017</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>87</v>
       </c>
-      <c r="C111" s="1">
-        <v>49</v>
-      </c>
-      <c r="D111">
+      <c r="C111">
         <v>17104</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>100</v>
       </c>
-      <c r="C112" s="1">
-        <v>59</v>
-      </c>
-      <c r="D112">
+      <c r="C112">
         <v>17204</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>121</v>
       </c>
-      <c r="C113" s="1">
-        <v>70</v>
-      </c>
-      <c r="D113">
+      <c r="C113">
         <v>17325</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>97</v>
       </c>
-      <c r="C114" s="1">
-        <v>81</v>
-      </c>
-      <c r="D114">
+      <c r="C114">
         <v>17422</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>142</v>
       </c>
-      <c r="C115" s="1">
-        <v>89</v>
-      </c>
-      <c r="D115">
+      <c r="C115">
         <v>17564</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>127</v>
       </c>
-      <c r="C116" s="1">
-        <v>98</v>
-      </c>
-      <c r="D116">
+      <c r="C116">
         <v>17691</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>78</v>
       </c>
-      <c r="C117" s="1">
-        <v>100</v>
-      </c>
-      <c r="D117">
+      <c r="C117">
         <v>17769</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>140</v>
       </c>
-      <c r="C118" s="1">
-        <v>107</v>
-      </c>
-      <c r="D118">
+      <c r="C118">
         <v>17909</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>179</v>
       </c>
-      <c r="C119" s="1">
-        <v>115</v>
-      </c>
-      <c r="D119">
+      <c r="C119">
         <v>18088</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>174</v>
       </c>
-      <c r="C120" s="1">
-        <v>126</v>
-      </c>
-      <c r="D120">
+      <c r="C120">
         <v>18262</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>240</v>
       </c>
-      <c r="C121" s="1">
-        <v>133</v>
-      </c>
-      <c r="D121">
+      <c r="C121">
         <v>18502</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>192</v>
       </c>
-      <c r="C122" s="1">
-        <v>154</v>
-      </c>
-      <c r="D122">
+      <c r="C122">
         <v>18694</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>184</v>
       </c>
-      <c r="C123" s="1">
-        <v>161</v>
-      </c>
-      <c r="D123">
+      <c r="C123">
         <v>18878</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>149</v>
       </c>
-      <c r="C124" s="1">
-        <v>169</v>
-      </c>
-      <c r="D124">
+      <c r="C124">
         <v>19027</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125">
         <v>136</v>
       </c>
-      <c r="C125" s="1">
-        <v>179</v>
-      </c>
-      <c r="D125">
+      <c r="C125">
         <v>19163</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>199</v>
       </c>
-      <c r="C126" s="1">
-        <v>179</v>
-      </c>
-      <c r="D126">
+      <c r="C126">
         <v>19362</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127">
         <v>299</v>
       </c>
-      <c r="C127" s="1">
-        <v>182</v>
-      </c>
-      <c r="D127">
+      <c r="C127">
         <v>19661</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128">
         <v>271</v>
       </c>
-      <c r="C128" s="1">
-        <v>199</v>
-      </c>
-      <c r="D128">
+      <c r="C128">
         <v>19932</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>302</v>
       </c>
-      <c r="C129" s="1">
-        <v>204</v>
-      </c>
-      <c r="D129">
+      <c r="C129">
         <v>20234</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>310</v>
       </c>
-      <c r="C130" s="1">
-        <v>220</v>
-      </c>
-      <c r="D130">
+      <c r="C130">
         <v>20544</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>161</v>
       </c>
-      <c r="C131" s="1">
-        <v>238</v>
-      </c>
-      <c r="D131">
+      <c r="C131">
         <v>20705</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132">
         <v>173</v>
       </c>
-      <c r="C132" s="1">
-        <v>239</v>
-      </c>
-      <c r="D132">
+      <c r="C132">
         <v>20878</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>345</v>
       </c>
-      <c r="C133" s="1">
-        <v>245</v>
-      </c>
-      <c r="D133">
+      <c r="C133">
         <v>21223</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134">
         <v>452</v>
       </c>
-      <c r="C134" s="1">
-        <v>265</v>
-      </c>
-      <c r="D134">
+      <c r="C134">
         <v>21675</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135">
         <v>487</v>
       </c>
-      <c r="C135" s="1">
-        <v>287</v>
-      </c>
-      <c r="D135">
+      <c r="C135">
         <v>22162</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136">
         <v>516</v>
       </c>
-      <c r="C136" s="1">
-        <v>318</v>
-      </c>
-      <c r="D136">
+      <c r="C136">
         <v>22678</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>464</v>
       </c>
-      <c r="C137" s="1">
-        <v>349</v>
-      </c>
-      <c r="D137">
+      <c r="C137">
         <v>23142</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>398</v>
       </c>
-      <c r="C138" s="1">
-        <v>371</v>
-      </c>
-      <c r="D138">
+      <c r="C138">
         <v>23540</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>385</v>
       </c>
-      <c r="C139" s="1">
-        <v>405</v>
-      </c>
-      <c r="D139">
+      <c r="C139">
         <v>23925</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>756</v>
       </c>
-      <c r="C140" s="1">
-        <v>435</v>
-      </c>
-      <c r="D140">
+      <c r="C140">
         <v>24681</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141">
         <v>789</v>
       </c>
-      <c r="C141" s="1">
-        <v>494</v>
-      </c>
-      <c r="D141">
+      <c r="C141">
         <v>25470</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142">
         <v>971</v>
       </c>
-      <c r="C142" s="1">
-        <v>542</v>
-      </c>
-      <c r="D142">
+      <c r="C142">
         <v>26441</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>1149</v>
       </c>
-      <c r="C143" s="1">
-        <v>611</v>
-      </c>
-      <c r="D143">
+      <c r="C143">
         <v>27590</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>939</v>
       </c>
-      <c r="C144" s="1">
-        <v>701</v>
-      </c>
-      <c r="D144">
+      <c r="C144">
         <v>28529</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145">
         <v>821</v>
       </c>
-      <c r="C145" s="1">
-        <v>769</v>
-      </c>
-      <c r="D145">
+      <c r="C145">
         <v>29350</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <v>831</v>
       </c>
-      <c r="C146" s="1">
-        <v>830</v>
-      </c>
-      <c r="D146">
+      <c r="C146">
         <v>30181</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>1134</v>
       </c>
-      <c r="C147" s="1">
-        <v>893</v>
-      </c>
-      <c r="D147">
+      <c r="C147">
         <v>31315</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>1390</v>
       </c>
-      <c r="C148" s="1">
-        <v>947</v>
-      </c>
-      <c r="D148">
+      <c r="C148">
         <v>32705</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>1327</v>
       </c>
-      <c r="C149" s="1">
-        <v>1033</v>
-      </c>
-      <c r="D149">
+      <c r="C149">
         <v>34032</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>1524</v>
       </c>
-      <c r="C150" s="1">
-        <v>1084</v>
-      </c>
-      <c r="D150">
+      <c r="C150">
         <v>35556</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>1410</v>
       </c>
-      <c r="C151" s="1">
-        <v>1138</v>
-      </c>
-      <c r="D151">
+      <c r="C151">
         <v>36966</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>1168</v>
       </c>
-      <c r="C152" s="1">
-        <v>1205</v>
-      </c>
-      <c r="D152">
+      <c r="C152">
         <v>38134</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>1239</v>
       </c>
-      <c r="C153" s="1">
-        <v>1254</v>
-      </c>
-      <c r="D153">
+      <c r="C153">
         <v>39373</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>1718</v>
       </c>
-      <c r="C154" s="1">
-        <v>1313</v>
-      </c>
-      <c r="D154">
+      <c r="C154">
         <v>41091</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155">
         <v>1602</v>
       </c>
-      <c r="C155" s="1">
-        <v>1396</v>
-      </c>
-      <c r="D155">
+      <c r="C155">
         <v>42693</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <v>1877</v>
       </c>
-      <c r="C156" s="1">
-        <v>1426</v>
-      </c>
-      <c r="D156">
+      <c r="C156">
         <v>44570</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157">
         <v>1937</v>
       </c>
-      <c r="C157" s="1">
-        <v>1505</v>
-      </c>
-      <c r="D157">
+      <c r="C157">
         <v>46507</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>1605</v>
       </c>
-      <c r="C158" s="1">
-        <v>1564</v>
-      </c>
-      <c r="D158">
+      <c r="C158">
         <v>48112</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159">
         <v>1448</v>
       </c>
-      <c r="C159" s="1">
-        <v>1592</v>
-      </c>
-      <c r="D159">
+      <c r="C159">
         <v>49560</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160">
         <v>1016</v>
       </c>
-      <c r="C160" s="1">
-        <v>1632</v>
-      </c>
-      <c r="D160">
+      <c r="C160">
         <v>50576</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161">
         <v>1887</v>
       </c>
-      <c r="C161" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D161">
+      <c r="C161">
         <v>52463</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162">
         <v>2006</v>
       </c>
-      <c r="C162" s="1">
-        <v>1624</v>
-      </c>
-      <c r="D162">
+      <c r="C162">
         <v>54469</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163">
         <v>2044</v>
       </c>
-      <c r="C163" s="1">
-        <v>1682</v>
-      </c>
-      <c r="D163">
+      <c r="C163">
         <v>56513</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164">
         <v>1989</v>
       </c>
-      <c r="C164" s="1">
-        <v>1706</v>
-      </c>
-      <c r="D164">
+      <c r="C164">
         <v>58502</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165">
         <v>1831</v>
       </c>
-      <c r="C165" s="1">
-        <v>1713</v>
-      </c>
-      <c r="D165">
+      <c r="C165">
         <v>60333</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>1112</v>
       </c>
-      <c r="C166" s="1">
-        <v>1745</v>
-      </c>
-      <c r="D166">
+      <c r="C166">
         <v>61445</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>1042</v>
       </c>
-      <c r="C167" s="1">
-        <v>1697</v>
-      </c>
-      <c r="D167">
+      <c r="C167">
         <v>62487</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168">
         <v>2049</v>
       </c>
-      <c r="C168" s="1">
-        <v>1701</v>
-      </c>
-      <c r="D168">
+      <c r="C168">
         <v>64536</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169">
         <v>2125</v>
       </c>
-      <c r="C169" s="1">
-        <v>1724</v>
-      </c>
-      <c r="D169">
+      <c r="C169">
         <v>66661</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170">
         <v>1957</v>
       </c>
-      <c r="C170" s="1">
-        <v>1741</v>
-      </c>
-      <c r="D170">
+      <c r="C170">
         <v>68618</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171">
         <v>1788</v>
       </c>
-      <c r="C171" s="1">
-        <v>1729</v>
-      </c>
-      <c r="D171">
+      <c r="C171">
         <v>70406</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172">
         <v>1362</v>
       </c>
-      <c r="C172" s="1">
-        <v>1700</v>
-      </c>
-      <c r="D172">
+      <c r="C172">
         <v>71768</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173">
         <v>625</v>
       </c>
-      <c r="C173" s="1">
-        <v>1633</v>
-      </c>
-      <c r="D173">
+      <c r="C173">
         <v>72393</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B174">
         <v>709</v>
       </c>
-      <c r="C174" s="1">
-        <v>1564</v>
-      </c>
-      <c r="D174">
+      <c r="C174">
         <v>73102</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>1800</v>
       </c>
-      <c r="C175" s="1">
-        <v>1516</v>
-      </c>
-      <c r="D175">
+      <c r="C175">
         <v>74902</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176">
         <v>1729</v>
       </c>
-      <c r="C176" s="1">
-        <v>1480</v>
-      </c>
-      <c r="D176">
+      <c r="C176">
         <v>76631</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177">
         <v>1690</v>
       </c>
-      <c r="C177" s="1">
-        <v>1424</v>
-      </c>
-      <c r="D177">
+      <c r="C177">
         <v>78321</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178">
         <v>1677</v>
       </c>
-      <c r="C178" s="1">
-        <v>1386</v>
-      </c>
-      <c r="D178">
+      <c r="C178">
         <v>79998</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179">
         <v>1765</v>
       </c>
-      <c r="C179" s="1">
-        <v>1370</v>
-      </c>
-      <c r="D179">
+      <c r="C179">
         <v>81763</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180">
         <v>754</v>
       </c>
-      <c r="C180" s="1">
-        <v>1427</v>
-      </c>
-      <c r="D180">
+      <c r="C180">
         <v>82517</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181">
         <v>924</v>
       </c>
-      <c r="C181" s="1">
-        <v>1446</v>
-      </c>
-      <c r="D181">
+      <c r="C181">
         <v>83441</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182">
         <v>1704</v>
       </c>
-      <c r="C182" s="1">
-        <v>1477</v>
-      </c>
-      <c r="D182">
+      <c r="C182">
         <v>85145</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183">
         <v>1823</v>
       </c>
-      <c r="C183" s="1">
-        <v>1463</v>
-      </c>
-      <c r="D183">
+      <c r="C183">
         <v>86968</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184">
         <v>1622</v>
       </c>
-      <c r="C184" s="1">
-        <v>1476</v>
-      </c>
-      <c r="D184">
+      <c r="C184">
         <v>88590</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B185">
         <v>1644</v>
       </c>
-      <c r="C185" s="1">
-        <v>1467</v>
-      </c>
-      <c r="D185">
+      <c r="C185">
         <v>90234</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186">
         <v>1388</v>
       </c>
-      <c r="C186" s="1">
-        <v>1462</v>
-      </c>
-      <c r="D186">
+      <c r="C186">
         <v>91622</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187">
         <v>757</v>
       </c>
-      <c r="C187" s="1">
-        <v>1408</v>
-      </c>
-      <c r="D187">
+      <c r="C187">
         <v>92379</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188">
         <v>1068</v>
       </c>
-      <c r="C188" s="1">
-        <v>1408</v>
-      </c>
-      <c r="D188">
+      <c r="C188">
         <v>93447</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B189">
         <v>1650</v>
       </c>
-      <c r="C189" s="1">
-        <v>1429</v>
-      </c>
-      <c r="D189">
+      <c r="C189">
         <v>95097</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B190">
         <v>1649</v>
       </c>
-      <c r="C190" s="1">
-        <v>1421</v>
-      </c>
-      <c r="D190">
+      <c r="C190">
         <v>96746</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B191">
         <v>1641</v>
       </c>
-      <c r="C191" s="1">
-        <v>1396</v>
-      </c>
-      <c r="D191">
+      <c r="C191">
         <v>98387</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192">
         <v>1487</v>
       </c>
-      <c r="C192" s="1">
-        <v>1399</v>
-      </c>
-      <c r="D192">
+      <c r="C192">
         <v>99874</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193">
         <v>1494</v>
       </c>
-      <c r="C193" s="1">
-        <v>1377</v>
-      </c>
-      <c r="D193">
+      <c r="C193">
         <v>101368</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194">
         <v>711</v>
       </c>
-      <c r="C194" s="1">
-        <v>1392</v>
-      </c>
-      <c r="D194">
+      <c r="C194">
         <v>102079</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195">
         <v>965</v>
       </c>
-      <c r="C195" s="1">
-        <v>1385</v>
-      </c>
-      <c r="D195">
+      <c r="C195">
         <v>103044</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196">
         <v>1901</v>
       </c>
-      <c r="C196" s="1">
-        <v>1371</v>
-      </c>
-      <c r="D196">
+      <c r="C196">
         <v>104945</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197">
         <v>1956</v>
       </c>
-      <c r="C197" s="1">
-        <v>1406</v>
-      </c>
-      <c r="D197">
+      <c r="C197">
         <v>106901</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198">
         <v>1985</v>
       </c>
-      <c r="C198" s="1">
-        <v>1450</v>
-      </c>
-      <c r="D198">
+      <c r="C198">
         <v>108886</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>2105</v>
       </c>
-      <c r="C199" s="1">
-        <v>1499</v>
-      </c>
-      <c r="D199">
+      <c r="C199">
         <v>110991</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200">
         <v>1831</v>
       </c>
-      <c r="C200" s="1">
-        <v>1588</v>
-      </c>
-      <c r="D200">
+      <c r="C200">
         <v>112822</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201">
         <v>910</v>
       </c>
-      <c r="C201" s="1">
-        <v>1636</v>
-      </c>
-      <c r="D201">
+      <c r="C201">
         <v>113732</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202">
         <v>1101</v>
       </c>
-      <c r="C202" s="1">
-        <v>1664</v>
-      </c>
-      <c r="D202">
+      <c r="C202">
         <v>114833</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203">
         <v>2178</v>
       </c>
-      <c r="C203" s="1">
-        <v>1684</v>
-      </c>
-      <c r="D203">
+      <c r="C203">
         <v>117011</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204">
         <v>2253</v>
       </c>
-      <c r="C204" s="1">
-        <v>1723</v>
-      </c>
-      <c r="D204">
+      <c r="C204">
         <v>119264</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B205">
         <v>3192</v>
       </c>
-      <c r="C205" s="1">
-        <v>1766</v>
-      </c>
-      <c r="D205">
+      <c r="C205">
         <v>122456</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206">
         <v>2661</v>
       </c>
-      <c r="C206" s="1">
-        <v>1938</v>
-      </c>
-      <c r="D206">
+      <c r="C206">
         <v>125117</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207">
         <v>2623</v>
       </c>
-      <c r="C207" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D207">
+      <c r="C207">
         <v>127740</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208">
         <v>1505</v>
       </c>
-      <c r="C208" s="1">
-        <v>2131</v>
-      </c>
-      <c r="D208">
+      <c r="C208">
         <v>129245</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209">
         <v>2176</v>
       </c>
-      <c r="C209" s="1">
-        <v>2216</v>
-      </c>
-      <c r="D209">
+      <c r="C209">
         <v>131421</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B210">
         <v>3388</v>
       </c>
-      <c r="C210" s="1">
-        <v>2369</v>
-      </c>
-      <c r="D210">
+      <c r="C210">
         <v>134809</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211">
         <v>3489</v>
       </c>
-      <c r="C211" s="1">
-        <v>2542</v>
-      </c>
-      <c r="D211">
+      <c r="C211">
         <v>138298</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212">
         <v>3993</v>
       </c>
-      <c r="C212" s="1">
-        <v>2719</v>
-      </c>
-      <c r="D212">
+      <c r="C212">
         <v>142291</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213">
         <v>4161</v>
       </c>
-      <c r="C213" s="1">
-        <v>2833</v>
-      </c>
-      <c r="D213">
+      <c r="C213">
         <v>146452</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214">
         <v>3975</v>
       </c>
-      <c r="C214" s="1">
-        <v>3047</v>
-      </c>
-      <c r="D214">
+      <c r="C214">
         <v>150427</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215">
         <v>2719</v>
       </c>
-      <c r="C215" s="1">
-        <v>3241</v>
-      </c>
-      <c r="D215">
+      <c r="C215">
         <v>153146</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216">
         <v>3174</v>
       </c>
-      <c r="C216" s="1">
-        <v>3414</v>
-      </c>
-      <c r="D216">
+      <c r="C216">
         <v>156320</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217">
         <v>4812</v>
       </c>
-      <c r="C217" s="1">
-        <v>3557</v>
-      </c>
-      <c r="D217">
+      <c r="C217">
         <v>161132</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218">
         <v>5539</v>
       </c>
-      <c r="C218" s="1">
-        <v>3760</v>
-      </c>
-      <c r="D218">
+      <c r="C218">
         <v>166671</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219">
         <v>4574</v>
       </c>
-      <c r="C219" s="1">
-        <v>4053</v>
-      </c>
-      <c r="D219">
+      <c r="C219">
         <v>171245</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220">
         <v>5385</v>
       </c>
-      <c r="C220" s="1">
-        <v>4136</v>
-      </c>
-      <c r="D220">
+      <c r="C220">
         <v>176630</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221">
         <v>5340</v>
       </c>
-      <c r="C221" s="1">
-        <v>4311</v>
-      </c>
-      <c r="D221">
+      <c r="C221">
         <v>181970</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B222">
         <v>3812</v>
       </c>
-      <c r="C222" s="1">
-        <v>4506</v>
-      </c>
-      <c r="D222">
+      <c r="C222">
         <v>185782</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B223">
         <v>2578</v>
       </c>
-      <c r="C223" s="1">
-        <v>4662</v>
-      </c>
-      <c r="D223">
+      <c r="C223">
         <v>188360</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224">
         <v>3874</v>
       </c>
-      <c r="C224" s="1">
-        <v>4577</v>
-      </c>
-      <c r="D224">
+      <c r="C224">
         <v>192234</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225">
         <v>7025</v>
       </c>
-      <c r="C225" s="1">
-        <v>4443</v>
-      </c>
-      <c r="D225">
+      <c r="C225">
         <v>199259</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B226">
         <v>7151</v>
       </c>
-      <c r="C226" s="1">
-        <v>4655</v>
-      </c>
-      <c r="D226">
+      <c r="C226">
         <v>206410</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227">
         <v>8274</v>
       </c>
-      <c r="C227" s="1">
-        <v>5023</v>
-      </c>
-      <c r="D227">
+      <c r="C227">
         <v>214684</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228">
         <v>8397</v>
       </c>
-      <c r="C228" s="1">
-        <v>5436</v>
-      </c>
-      <c r="D228">
+      <c r="C228">
         <v>223081</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229">
         <v>5881</v>
       </c>
-      <c r="C229" s="1">
-        <v>5873</v>
-      </c>
-      <c r="D229">
+      <c r="C229">
         <v>228962</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230">
         <v>3441</v>
       </c>
-      <c r="C230" s="1">
-        <v>6168</v>
-      </c>
-      <c r="D230">
+      <c r="C230">
         <v>232403</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231">
         <v>1159</v>
       </c>
-      <c r="C231" s="1">
-        <v>6291</v>
-      </c>
-      <c r="D231">
+      <c r="C231">
         <v>233562</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232">
         <v>4993</v>
       </c>
-      <c r="C232" s="1">
-        <v>5904</v>
-      </c>
-      <c r="D232">
+      <c r="C232">
         <v>238555</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233">
         <v>9078</v>
       </c>
-      <c r="C233" s="1">
-        <v>5613</v>
-      </c>
-      <c r="D233">
+      <c r="C233">
         <v>247633</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234">
         <v>7729</v>
       </c>
-      <c r="C234" s="1">
-        <v>5889</v>
-      </c>
-      <c r="D234">
+      <c r="C234">
         <v>255362</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235">
         <v>7060</v>
       </c>
-      <c r="C235" s="1">
-        <v>5811</v>
-      </c>
-      <c r="D235">
+      <c r="C235">
         <v>262422</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236">
         <v>2595</v>
       </c>
-      <c r="C236" s="1">
-        <v>5620</v>
-      </c>
-      <c r="D236">
+      <c r="C236">
         <v>265017</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237">
         <v>2938</v>
       </c>
-      <c r="C237" s="1">
-        <v>5150</v>
-      </c>
-      <c r="D237">
+      <c r="C237">
         <v>267955</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238">
         <v>5721</v>
       </c>
-      <c r="C238" s="1">
-        <v>5078</v>
-      </c>
-      <c r="D238">
+      <c r="C238">
         <v>273676</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239">
         <v>4725</v>
       </c>
-      <c r="C239" s="1">
-        <v>5730</v>
-      </c>
-      <c r="D239">
+      <c r="C239">
         <v>278401</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240">
         <v>4164</v>
       </c>
-      <c r="C240" s="1">
-        <v>5692</v>
-      </c>
-      <c r="D240">
+      <c r="C240">
         <v>282565</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241">
         <v>3755</v>
       </c>
-      <c r="C241" s="1">
-        <v>4990</v>
-      </c>
-      <c r="D241">
+      <c r="C241">
         <v>286320</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242">
         <v>2964</v>
       </c>
-      <c r="C242" s="1">
-        <v>4422</v>
-      </c>
-      <c r="D242">
+      <c r="C242">
         <v>289284</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243">
         <v>916</v>
       </c>
-      <c r="C243" s="1">
-        <v>3837</v>
-      </c>
-      <c r="D243">
+      <c r="C243">
         <v>290200</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244">
         <v>1646</v>
       </c>
-      <c r="C244" s="1">
-        <v>3597</v>
-      </c>
-      <c r="D244">
+      <c r="C244">
         <v>291846</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245">
         <v>3169</v>
       </c>
-      <c r="C245" s="1">
-        <v>3413</v>
-      </c>
-      <c r="D245">
+      <c r="C245">
         <v>295015</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246">
         <v>2336</v>
       </c>
-      <c r="C246" s="1">
-        <v>3048</v>
-      </c>
-      <c r="D246">
+      <c r="C246">
         <v>297351</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247">
         <v>2118</v>
       </c>
-      <c r="C247" s="1">
-        <v>2707</v>
-      </c>
-      <c r="D247">
+      <c r="C247">
         <v>299469</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248">
         <v>1612</v>
       </c>
-      <c r="C248" s="1">
-        <v>2414</v>
-      </c>
-      <c r="D248">
+      <c r="C248">
         <v>301081</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249">
         <v>1500</v>
       </c>
-      <c r="C249" s="1">
-        <v>2108</v>
-      </c>
-      <c r="D249">
+      <c r="C249">
         <v>302581</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250">
         <v>412</v>
       </c>
-      <c r="C250" s="1">
-        <v>1899</v>
-      </c>
-      <c r="D250">
+      <c r="C250">
         <v>302993</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B251">
         <v>924</v>
       </c>
-      <c r="C251" s="1">
-        <v>1827</v>
-      </c>
-      <c r="D251">
+      <c r="C251">
         <v>303917</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B252">
         <v>1517</v>
       </c>
-      <c r="C252" s="1">
-        <v>1724</v>
-      </c>
-      <c r="D252">
+      <c r="C252">
         <v>305434</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253">
         <v>1194</v>
       </c>
-      <c r="C253" s="1">
-        <v>1488</v>
-      </c>
-      <c r="D253">
+      <c r="C253">
         <v>306628</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B254">
         <v>1170</v>
       </c>
-      <c r="C254" s="1">
-        <v>1325</v>
-      </c>
-      <c r="D254">
+      <c r="C254">
         <v>307798</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B255">
         <v>1032</v>
       </c>
-      <c r="C255" s="1">
-        <v>1189</v>
-      </c>
-      <c r="D255">
+      <c r="C255">
         <v>308830</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256">
         <v>849</v>
       </c>
-      <c r="C256" s="1">
-        <v>1107</v>
-      </c>
-      <c r="D256">
+      <c r="C256">
         <v>309679</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B257">
         <v>246</v>
       </c>
-      <c r="C257" s="1">
-        <v>1014</v>
-      </c>
-      <c r="D257">
+      <c r="C257">
         <v>309925</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258">
         <v>606</v>
       </c>
-      <c r="C258" s="1">
-        <v>990</v>
-      </c>
-      <c r="D258">
+      <c r="C258">
         <v>310531</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B259">
         <v>884</v>
       </c>
-      <c r="C259" s="1">
-        <v>944</v>
-      </c>
-      <c r="D259">
+      <c r="C259">
         <v>311415</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B260">
         <v>887</v>
       </c>
-      <c r="C260" s="1">
-        <v>854</v>
-      </c>
-      <c r="D260">
+      <c r="C260">
         <v>312302</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B261">
         <v>724</v>
       </c>
-      <c r="C261" s="1">
-        <v>810</v>
-      </c>
-      <c r="D261">
+      <c r="C261">
         <v>313026</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B262">
         <v>645</v>
       </c>
-      <c r="C262" s="1">
-        <v>746</v>
-      </c>
-      <c r="D262">
+      <c r="C262">
         <v>313671</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B263">
         <v>680</v>
       </c>
-      <c r="C263" s="1">
-        <v>691</v>
-      </c>
-      <c r="D263">
+      <c r="C263">
         <v>314351</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B264">
         <v>228</v>
       </c>
-      <c r="C264" s="1">
-        <v>667</v>
-      </c>
-      <c r="D264">
+      <c r="C264">
         <v>314579</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265">
         <v>658</v>
       </c>
-      <c r="C265" s="1">
-        <v>664</v>
-      </c>
-      <c r="D265">
+      <c r="C265">
         <v>315237</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B266">
         <v>789</v>
       </c>
-      <c r="C266" s="1">
-        <v>672</v>
-      </c>
-      <c r="D266">
+      <c r="C266">
         <v>316026</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B267">
         <v>845</v>
       </c>
-      <c r="C267" s="1">
-        <v>658</v>
-      </c>
-      <c r="D267">
+      <c r="C267">
         <v>316871</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B268">
         <v>769</v>
       </c>
-      <c r="C268" s="1">
-        <v>652</v>
-      </c>
-      <c r="D268">
+      <c r="C268">
         <v>317640</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B269">
         <v>570</v>
       </c>
-      <c r="C269" s="1">
-        <v>659</v>
-      </c>
-      <c r="D269">
+      <c r="C269">
         <v>318210</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B270">
         <v>691</v>
       </c>
-      <c r="C270" s="1">
-        <v>648</v>
-      </c>
-      <c r="D270">
+      <c r="C270">
         <v>318901</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B271">
         <v>212</v>
       </c>
-      <c r="C271" s="1">
-        <v>650</v>
-      </c>
-      <c r="D271">
+      <c r="C271">
         <v>319113</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B272">
         <v>534</v>
       </c>
-      <c r="C272" s="1">
-        <v>647</v>
-      </c>
-      <c r="D272">
+      <c r="C272">
         <v>319647</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B273">
         <v>719</v>
       </c>
-      <c r="C273" s="1">
-        <v>630</v>
-      </c>
-      <c r="D273">
+      <c r="C273">
         <v>320366</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B274">
         <v>675</v>
       </c>
-      <c r="C274" s="1">
-        <v>620</v>
-      </c>
-      <c r="D274">
+      <c r="C274">
         <v>321041</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275">
         <v>765</v>
       </c>
-      <c r="C275" s="1">
-        <v>595</v>
-      </c>
-      <c r="D275">
+      <c r="C275">
         <v>321806</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B276">
         <v>836</v>
       </c>
-      <c r="C276" s="1">
-        <v>595</v>
-      </c>
-      <c r="D276">
+      <c r="C276">
         <v>322642</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B277">
         <v>761</v>
       </c>
-      <c r="C277" s="1">
-        <v>633</v>
-      </c>
-      <c r="D277">
+      <c r="C277">
         <v>323403</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B278">
         <v>292</v>
       </c>
-      <c r="C278" s="1">
-        <v>643</v>
-      </c>
-      <c r="D278">
+      <c r="C278">
         <v>323695</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B279">
         <v>626</v>
       </c>
-      <c r="C279" s="1">
-        <v>654</v>
-      </c>
-      <c r="D279">
+      <c r="C279">
         <v>324321</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B280">
         <v>873</v>
       </c>
-      <c r="C280" s="1">
-        <v>667</v>
-      </c>
-      <c r="D280">
+      <c r="C280">
         <v>325194</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B281">
         <v>829</v>
       </c>
-      <c r="C281" s="1">
-        <v>689</v>
-      </c>
-      <c r="D281">
+      <c r="C281">
         <v>326023</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B282">
         <v>795</v>
       </c>
-      <c r="C282" s="1">
-        <v>711</v>
-      </c>
-      <c r="D282">
+      <c r="C282">
         <v>326818</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283">
         <v>771</v>
       </c>
-      <c r="C283" s="1">
-        <v>716</v>
-      </c>
-      <c r="D283">
+      <c r="C283">
         <v>327589</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B284">
         <v>774</v>
       </c>
-      <c r="C284" s="1">
-        <v>706</v>
-      </c>
-      <c r="D284">
+      <c r="C284">
         <v>328363</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B285">
         <v>422</v>
       </c>
-      <c r="C285" s="1">
-        <v>708</v>
-      </c>
-      <c r="D285">
+      <c r="C285">
         <v>328785</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B286">
         <v>762</v>
       </c>
-      <c r="C286" s="1">
-        <v>727</v>
-      </c>
-      <c r="D286">
+      <c r="C286">
         <v>329547</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B287">
         <v>959</v>
       </c>
-      <c r="C287" s="1">
-        <v>746</v>
-      </c>
-      <c r="D287">
+      <c r="C287">
         <v>330506</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B288">
         <v>857</v>
       </c>
-      <c r="C288" s="1">
-        <v>758</v>
-      </c>
-      <c r="D288">
+      <c r="C288">
         <v>331363</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B289">
         <v>1079</v>
       </c>
-      <c r="C289" s="1">
-        <v>762</v>
-      </c>
-      <c r="D289">
+      <c r="C289">
         <v>332442</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B290">
         <v>1087</v>
       </c>
-      <c r="C290" s="1">
-        <v>803</v>
-      </c>
-      <c r="D290">
+      <c r="C290">
         <v>333529</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B291">
         <v>1031</v>
       </c>
-      <c r="C291" s="1">
-        <v>848</v>
-      </c>
-      <c r="D291">
+      <c r="C291">
         <v>334560</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B292">
         <v>582</v>
       </c>
-      <c r="C292" s="1">
-        <v>885</v>
-      </c>
-      <c r="D292">
+      <c r="C292">
         <v>335142</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B293">
         <v>1024</v>
       </c>
-      <c r="C293" s="1">
-        <v>908</v>
-      </c>
-      <c r="D293">
+      <c r="C293">
         <v>336166</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B294">
         <v>1257</v>
       </c>
-      <c r="C294" s="1">
-        <v>945</v>
-      </c>
-      <c r="D294">
+      <c r="C294">
         <v>337423</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B295">
         <v>1199</v>
       </c>
-      <c r="C295" s="1">
-        <v>988</v>
-      </c>
-      <c r="D295">
+      <c r="C295">
         <v>338622</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B296">
         <v>1589</v>
       </c>
-      <c r="C296" s="1">
-        <v>1037</v>
-      </c>
-      <c r="D296">
+      <c r="C296">
         <v>340211</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B297">
         <v>1452</v>
       </c>
-      <c r="C297" s="1">
-        <v>1109</v>
-      </c>
-      <c r="D297">
+      <c r="C297">
         <v>341663</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B298">
         <v>1516</v>
       </c>
-      <c r="C298" s="1">
-        <v>1162</v>
-      </c>
-      <c r="D298">
+      <c r="C298">
         <v>343179</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B299">
         <v>1000</v>
       </c>
-      <c r="C299" s="1">
-        <v>1231</v>
-      </c>
-      <c r="D299">
+      <c r="C299">
         <v>344179</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B300">
         <v>1364</v>
       </c>
-      <c r="C300" s="1">
-        <v>1291</v>
-      </c>
-      <c r="D300">
+      <c r="C300">
         <v>345543</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B301">
         <v>1860</v>
       </c>
-      <c r="C301" s="1">
-        <v>1339</v>
-      </c>
-      <c r="D301">
+      <c r="C301">
         <v>347403</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B302">
         <v>1768</v>
       </c>
-      <c r="C302" s="1">
-        <v>1425</v>
-      </c>
-      <c r="D302">
+      <c r="C302">
         <v>349171</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B303">
         <v>1867</v>
       </c>
-      <c r="C303" s="1">
-        <v>1507</v>
-      </c>
-      <c r="D303">
+      <c r="C303">
         <v>351038</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B304">
         <v>2006</v>
       </c>
-      <c r="C304" s="1">
-        <v>1546</v>
-      </c>
-      <c r="D304">
+      <c r="C304">
         <v>353044</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B305">
         <v>1835</v>
       </c>
-      <c r="C305" s="1">
-        <v>1625</v>
-      </c>
-      <c r="D305">
+      <c r="C305">
         <v>354879</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B306">
         <v>1298</v>
       </c>
-      <c r="C306" s="1">
-        <v>1671</v>
-      </c>
-      <c r="D306">
+      <c r="C306">
         <v>356177</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B307">
         <v>1729</v>
       </c>
-      <c r="C307" s="1">
-        <v>1714</v>
-      </c>
-      <c r="D307">
+      <c r="C307">
         <v>357906</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B308">
         <v>2314</v>
       </c>
-      <c r="C308" s="1">
-        <v>1766</v>
-      </c>
-      <c r="D308">
+      <c r="C308">
         <v>360220</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B309">
         <v>2891</v>
       </c>
-      <c r="C309" s="1">
-        <v>1831</v>
-      </c>
-      <c r="D309">
+      <c r="C309">
         <v>363111</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B310">
         <v>2853</v>
       </c>
-      <c r="C310" s="1">
-        <v>1991</v>
-      </c>
-      <c r="D310">
+      <c r="C310">
         <v>365964</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B311">
         <v>2847</v>
       </c>
-      <c r="C311" s="1">
-        <v>2132</v>
-      </c>
-      <c r="D311">
+      <c r="C311">
         <v>368811</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B312">
         <v>2793</v>
       </c>
-      <c r="C312" s="1">
-        <v>2252</v>
-      </c>
-      <c r="D312">
+      <c r="C312">
         <v>371604</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B313">
         <v>1886</v>
       </c>
-      <c r="C313" s="1">
-        <v>2389</v>
-      </c>
-      <c r="D313">
+      <c r="C313">
         <v>373490</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B314">
         <v>3094</v>
       </c>
-      <c r="C314" s="1">
-        <v>2473</v>
-      </c>
-      <c r="D314">
+      <c r="C314">
         <v>376584</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B315">
         <v>3853</v>
       </c>
-      <c r="C315" s="1">
-        <v>2668</v>
-      </c>
-      <c r="D315">
+      <c r="C315">
         <v>380437</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B316">
         <v>4379</v>
       </c>
-      <c r="C316" s="1">
-        <v>2888</v>
-      </c>
-      <c r="D316">
+      <c r="C316">
         <v>384816</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B317">
         <v>4038</v>
       </c>
-      <c r="C317" s="1">
-        <v>3100</v>
-      </c>
-      <c r="D317">
+      <c r="C317">
         <v>388854</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B318">
         <v>4054</v>
       </c>
-      <c r="C318" s="1">
-        <v>3270</v>
-      </c>
-      <c r="D318">
+      <c r="C318">
         <v>392908</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B319">
         <v>4012</v>
       </c>
-      <c r="C319" s="1">
-        <v>3442</v>
-      </c>
-      <c r="D319">
+      <c r="C319">
         <v>396920</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B320">
         <v>2659</v>
       </c>
-      <c r="C320" s="1">
-        <v>3616</v>
-      </c>
-      <c r="D320">
+      <c r="C320">
         <v>399579</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B321">
         <v>3528</v>
       </c>
-      <c r="C321" s="1">
-        <v>3727</v>
-      </c>
-      <c r="D321">
+      <c r="C321">
         <v>403107</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B322">
         <v>5519</v>
       </c>
-      <c r="C322" s="1">
-        <v>3789</v>
-      </c>
-      <c r="D322">
+      <c r="C322">
         <v>408626</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B323">
         <v>5639</v>
       </c>
-      <c r="C323" s="1">
-        <v>4027</v>
-      </c>
-      <c r="D323">
+      <c r="C323">
         <v>414265</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B324">
         <v>5868</v>
       </c>
-      <c r="C324" s="1">
-        <v>4207</v>
-      </c>
-      <c r="D324">
+      <c r="C324">
         <v>420133</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B325">
         <v>5875</v>
       </c>
-      <c r="C325" s="1">
-        <v>4468</v>
-      </c>
-      <c r="D325">
+      <c r="C325">
         <v>426008</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B326">
         <v>6022</v>
       </c>
-      <c r="C326" s="1">
-        <v>4728</v>
-      </c>
-      <c r="D326">
+      <c r="C326">
         <v>432030</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B327">
         <v>4218</v>
       </c>
-      <c r="C327" s="1">
-        <v>5015</v>
-      </c>
-      <c r="D327">
+      <c r="C327">
         <v>436248</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B328">
         <v>5230</v>
       </c>
-      <c r="C328" s="1">
-        <v>5238</v>
-      </c>
-      <c r="D328">
+      <c r="C328">
         <v>441478</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B329">
         <v>8406</v>
       </c>
-      <c r="C329" s="1">
-        <v>5481</v>
-      </c>
-      <c r="D329">
+      <c r="C329">
         <v>449884</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B330">
         <v>8237</v>
       </c>
-      <c r="C330" s="1">
-        <v>5894</v>
-      </c>
-      <c r="D330">
+      <c r="C330">
         <v>458121</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B331">
         <v>7878</v>
       </c>
-      <c r="C331" s="1">
-        <v>6265</v>
-      </c>
-      <c r="D331">
+      <c r="C331">
         <v>465999</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B332">
         <v>7646</v>
       </c>
-      <c r="C332" s="1">
-        <v>6552</v>
-      </c>
-      <c r="D332">
+      <c r="C332">
         <v>473645</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B333">
         <v>8160</v>
       </c>
-      <c r="C333" s="1">
-        <v>6805</v>
-      </c>
-      <c r="D333">
+      <c r="C333">
         <v>481805</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B334">
         <v>5158</v>
       </c>
-      <c r="C334" s="1">
-        <v>7110</v>
-      </c>
-      <c r="D334">
+      <c r="C334">
         <v>486963</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B335">
         <v>6936</v>
       </c>
-      <c r="C335" s="1">
-        <v>7245</v>
-      </c>
-      <c r="D335">
+      <c r="C335">
         <v>493899</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B336">
         <v>9713</v>
       </c>
-      <c r="C336" s="1">
-        <v>7488</v>
-      </c>
-      <c r="D336">
+      <c r="C336">
         <v>503612</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B337">
         <v>9298</v>
       </c>
-      <c r="C337" s="1">
-        <v>7675</v>
-      </c>
-      <c r="D337">
+      <c r="C337">
         <v>512910</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B338">
         <v>9471</v>
       </c>
-      <c r="C338" s="1">
-        <v>7827</v>
-      </c>
-      <c r="D338">
+      <c r="C338">
         <v>522381</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B339">
         <v>9295</v>
       </c>
-      <c r="C339" s="1">
-        <v>8054</v>
-      </c>
-      <c r="D339">
+      <c r="C339">
         <v>531676</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B340">
         <v>8429</v>
       </c>
-      <c r="C340" s="1">
-        <v>8290</v>
-      </c>
-      <c r="D340">
+      <c r="C340">
         <v>540105</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B341">
         <v>5087</v>
       </c>
-      <c r="C341" s="1">
-        <v>8328</v>
-      </c>
-      <c r="D341">
+      <c r="C341">
         <v>545192</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B342">
         <v>5648</v>
       </c>
-      <c r="C342" s="1">
-        <v>8318</v>
-      </c>
-      <c r="D342">
+      <c r="C342">
         <v>550840</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B343">
         <v>10117</v>
       </c>
-      <c r="C343" s="1">
-        <v>8134</v>
-      </c>
-      <c r="D343">
+      <c r="C343">
         <v>560957</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B344">
         <v>8623</v>
       </c>
-      <c r="C344" s="1">
-        <v>8192</v>
-      </c>
-      <c r="D344">
+      <c r="C344">
         <v>569580</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B345">
         <v>8364</v>
       </c>
-      <c r="C345" s="1">
-        <v>8095</v>
-      </c>
-      <c r="D345">
+      <c r="C345">
         <v>577944</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B346">
         <v>7273</v>
       </c>
-      <c r="C346" s="1">
-        <v>7937</v>
-      </c>
-      <c r="D346">
+      <c r="C346">
         <v>585217</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B347">
         <v>7388</v>
       </c>
-      <c r="C347" s="1">
-        <v>7648</v>
-      </c>
-      <c r="D347">
+      <c r="C347">
         <v>592605</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B348">
         <v>2449</v>
       </c>
-      <c r="C348" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D348">
+      <c r="C348">
         <v>595054</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B349">
         <v>4945</v>
       </c>
-      <c r="C349" s="1">
-        <v>7123</v>
-      </c>
-      <c r="D349">
+      <c r="C349">
         <v>599999</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B350">
         <v>8730</v>
       </c>
-      <c r="C350" s="1">
-        <v>7022</v>
-      </c>
-      <c r="D350">
+      <c r="C350">
         <v>608729</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B351">
         <v>7800</v>
       </c>
-      <c r="C351" s="1">
-        <v>6824</v>
-      </c>
-      <c r="D351">
+      <c r="C351">
         <v>616529</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B352">
         <v>7727</v>
       </c>
-      <c r="C352" s="1">
-        <v>6707</v>
-      </c>
-      <c r="D352">
+      <c r="C352">
         <v>624256</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B353">
         <v>7184</v>
       </c>
-      <c r="C353" s="1">
-        <v>6616</v>
-      </c>
-      <c r="D353">
+      <c r="C353">
         <v>631440</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B354">
         <v>6760</v>
       </c>
-      <c r="C354" s="1">
-        <v>6603</v>
-      </c>
-      <c r="D354">
+      <c r="C354">
         <v>638200</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B355">
         <v>2622</v>
       </c>
-      <c r="C355" s="1">
-        <v>6513</v>
-      </c>
-      <c r="D355">
+      <c r="C355">
         <v>640822</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B356">
         <v>5226</v>
       </c>
-      <c r="C356" s="1">
-        <v>6538</v>
-      </c>
-      <c r="D356">
+      <c r="C356">
         <v>646048</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B357">
         <v>8926</v>
       </c>
-      <c r="C357" s="1">
-        <v>6578</v>
-      </c>
-      <c r="D357">
+      <c r="C357">
         <v>654974</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B358">
         <v>8029</v>
       </c>
-      <c r="C358" s="1">
-        <v>6606</v>
-      </c>
-      <c r="D358">
+      <c r="C358">
         <v>663003</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B359">
         <v>7474</v>
       </c>
-      <c r="C359" s="1">
-        <v>6639</v>
-      </c>
-      <c r="D359">
+      <c r="C359">
         <v>670477</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B360">
         <v>7252</v>
       </c>
-      <c r="C360" s="1">
-        <v>6603</v>
-      </c>
-      <c r="D360">
+      <c r="C360">
         <v>677729</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B361">
         <v>6583</v>
       </c>
-      <c r="C361" s="1">
-        <v>6612</v>
-      </c>
-      <c r="D361">
+      <c r="C361">
         <v>684312</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B362">
         <v>2657</v>
       </c>
-      <c r="C362" s="1">
-        <v>6587</v>
-      </c>
-      <c r="D362">
+      <c r="C362">
         <v>686969</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B363">
         <v>4596</v>
       </c>
-      <c r="C363" s="1">
-        <v>6592</v>
-      </c>
-      <c r="D363">
+      <c r="C363">
         <v>691565</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B364">
         <v>7839</v>
       </c>
-      <c r="C364" s="1">
-        <v>6502</v>
-      </c>
-      <c r="D364">
+      <c r="C364">
         <v>699404</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B365">
         <v>6164</v>
       </c>
-      <c r="C365" s="1">
-        <v>6347</v>
-      </c>
-      <c r="D365">
+      <c r="C365">
         <v>705568</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B366">
         <v>5676</v>
       </c>
-      <c r="C366" s="1">
-        <v>6080</v>
-      </c>
-      <c r="D366">
+      <c r="C366">
         <v>711244</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B367">
         <v>5009</v>
       </c>
-      <c r="C367" s="1">
-        <v>5823</v>
-      </c>
-      <c r="D367">
+      <c r="C367">
         <v>716253</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B368">
         <v>4662</v>
       </c>
-      <c r="C368" s="1">
-        <v>5503</v>
-      </c>
-      <c r="D368">
+      <c r="C368">
         <v>720915</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B369">
         <v>1888</v>
       </c>
-      <c r="C369" s="1">
-        <v>5229</v>
-      </c>
-      <c r="D369">
+      <c r="C369">
         <v>722803</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B370">
         <v>3483</v>
       </c>
-      <c r="C370" s="1">
-        <v>5119</v>
-      </c>
-      <c r="D370">
+      <c r="C370">
         <v>726286</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B371">
         <v>5187</v>
       </c>
-      <c r="C371" s="1">
-        <v>4960</v>
-      </c>
-      <c r="D371">
+      <c r="C371">
         <v>731473</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B372">
         <v>4568</v>
       </c>
-      <c r="C372" s="1">
-        <v>4581</v>
-      </c>
-      <c r="D372">
+      <c r="C372">
         <v>736041</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B373">
         <v>4167</v>
       </c>
-      <c r="C373" s="1">
-        <v>4353</v>
-      </c>
-      <c r="D373">
+      <c r="C373">
         <v>740208</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B374">
         <v>3332</v>
       </c>
-      <c r="C374" s="1">
-        <v>4137</v>
-      </c>
-      <c r="D374">
+      <c r="C374">
         <v>743540</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B375">
         <v>3792</v>
       </c>
-      <c r="C375" s="1">
-        <v>3898</v>
-      </c>
-      <c r="D375">
+      <c r="C375">
         <v>747332</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B376">
         <v>1255</v>
       </c>
-      <c r="C376" s="1">
-        <v>3773</v>
-      </c>
-      <c r="D376">
+      <c r="C376">
         <v>748587</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B377">
         <v>3107</v>
       </c>
-      <c r="C377" s="1">
-        <v>3683</v>
-      </c>
-      <c r="D377">
+      <c r="C377">
         <v>751694</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B378">
         <v>4809</v>
       </c>
-      <c r="C378" s="1">
-        <v>3629</v>
-      </c>
-      <c r="D378">
+      <c r="C378">
         <v>756503</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B379">
         <v>4447</v>
       </c>
-      <c r="C379" s="1">
-        <v>3575</v>
-      </c>
-      <c r="D379">
+      <c r="C379">
         <v>760950</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B380">
         <v>4374</v>
       </c>
-      <c r="C380" s="1">
-        <v>3558</v>
-      </c>
-      <c r="D380">
+      <c r="C380">
         <v>765324</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B381">
         <v>3814</v>
       </c>
-      <c r="C381" s="1">
-        <v>3588</v>
-      </c>
-      <c r="D381">
+      <c r="C381">
         <v>769138</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B382">
         <v>3813</v>
       </c>
-      <c r="C382" s="1">
-        <v>3656</v>
-      </c>
-      <c r="D382">
+      <c r="C382">
         <v>772951</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B383">
         <v>1438</v>
       </c>
-      <c r="C383" s="1">
-        <v>3659</v>
-      </c>
-      <c r="D383">
+      <c r="C383">
         <v>774389</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B384">
         <v>3070</v>
       </c>
-      <c r="C384" s="1">
-        <v>3686</v>
-      </c>
-      <c r="D384">
+      <c r="C384">
         <v>777459</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B385">
         <v>4859</v>
       </c>
-      <c r="C385" s="1">
-        <v>3680</v>
-      </c>
-      <c r="D385">
+      <c r="C385">
         <v>782318</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B386">
         <v>4378</v>
       </c>
-      <c r="C386" s="1">
-        <v>3687</v>
-      </c>
-      <c r="D386">
+      <c r="C386">
         <v>786696</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B387">
         <v>4669</v>
       </c>
-      <c r="C387" s="1">
-        <v>3678</v>
-      </c>
-      <c r="D387">
+      <c r="C387">
         <v>791365</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B388">
         <v>3659</v>
       </c>
-      <c r="C388" s="1">
-        <v>3720</v>
-      </c>
-      <c r="D388">
+      <c r="C388">
         <v>795024</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B389">
         <v>3715</v>
       </c>
-      <c r="C389" s="1">
-        <v>3698</v>
-      </c>
-      <c r="D389">
+      <c r="C389">
         <v>798739</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B390">
         <v>1878</v>
       </c>
-      <c r="C390" s="1">
-        <v>3684</v>
-      </c>
-      <c r="D390">
+      <c r="C390">
         <v>800617</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B391">
         <v>2347</v>
       </c>
-      <c r="C391" s="1">
-        <v>3746</v>
-      </c>
-      <c r="D391">
+      <c r="C391">
         <v>802964</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B392">
         <v>3784</v>
       </c>
-      <c r="C392" s="1">
-        <v>3643</v>
-      </c>
-      <c r="D392">
+      <c r="C392">
         <v>806748</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B393">
         <v>3120</v>
       </c>
-      <c r="C393" s="1">
-        <v>3490</v>
-      </c>
-      <c r="D393">
+      <c r="C393">
         <v>809868</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B394">
         <v>2833</v>
       </c>
-      <c r="C394" s="1">
-        <v>3310</v>
-      </c>
-      <c r="D394">
+      <c r="C394">
         <v>812701</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B395">
         <v>2549</v>
       </c>
-      <c r="C395" s="1">
-        <v>3048</v>
-      </c>
-      <c r="D395">
+      <c r="C395">
         <v>815250</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B396">
         <v>2414</v>
       </c>
-      <c r="C396" s="1">
-        <v>2889</v>
-      </c>
-      <c r="D396">
+      <c r="C396">
         <v>817664</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B397">
         <v>783</v>
       </c>
-      <c r="C397" s="1">
-        <v>2703</v>
-      </c>
-      <c r="D397">
+      <c r="C397">
         <v>818447</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B398">
         <v>1389</v>
       </c>
-      <c r="C398" s="1">
-        <v>2547</v>
-      </c>
-      <c r="D398">
+      <c r="C398">
         <v>819836</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B399">
         <v>2123</v>
       </c>
-      <c r="C399" s="1">
-        <v>2410</v>
-      </c>
-      <c r="D399">
+      <c r="C399">
         <v>821959</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B400">
         <v>1564</v>
       </c>
-      <c r="C400" s="1">
-        <v>2173</v>
-      </c>
-      <c r="D400">
+      <c r="C400">
         <v>823523</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B401">
         <v>1530</v>
       </c>
-      <c r="C401" s="1">
-        <v>1950</v>
-      </c>
-      <c r="D401">
+      <c r="C401">
         <v>825053</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B402">
         <v>1245</v>
       </c>
-      <c r="C402" s="1">
-        <v>1764</v>
-      </c>
-      <c r="D402">
+      <c r="C402">
         <v>826298</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B403">
         <v>1084</v>
       </c>
-      <c r="C403" s="1">
-        <v>1578</v>
-      </c>
-      <c r="D403">
+      <c r="C403">
         <v>827382</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B404">
         <v>349</v>
       </c>
-      <c r="C404" s="1">
-        <v>1388</v>
-      </c>
-      <c r="D404">
+      <c r="C404">
         <v>827731</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B405">
         <v>674</v>
       </c>
-      <c r="C405" s="1">
-        <v>1326</v>
-      </c>
-      <c r="D405">
+      <c r="C405">
         <v>828405</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B406">
         <v>979</v>
       </c>
-      <c r="C406" s="1">
-        <v>1224</v>
-      </c>
-      <c r="D406">
+      <c r="C406">
         <v>829384</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B407">
         <v>688</v>
       </c>
-      <c r="C407" s="1">
-        <v>1060</v>
-      </c>
-      <c r="D407">
+      <c r="C407">
         <v>830072</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B408">
         <v>478</v>
       </c>
-      <c r="C408" s="1">
-        <v>935</v>
-      </c>
-      <c r="D408">
+      <c r="C408">
         <v>830550</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B409">
         <v>842</v>
       </c>
-      <c r="C409" s="1">
-        <v>785</v>
-      </c>
-      <c r="D409">
+      <c r="C409">
         <v>831392</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B410">
         <v>520</v>
       </c>
-      <c r="C410" s="1">
-        <v>727</v>
-      </c>
-      <c r="D410">
+      <c r="C410">
         <v>831912</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B411">
         <v>231</v>
       </c>
-      <c r="C411" s="1">
-        <v>647</v>
-      </c>
-      <c r="D411">
+      <c r="C411">
         <v>832143</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B412">
         <v>129</v>
       </c>
-      <c r="C412" s="1">
-        <v>630</v>
-      </c>
-      <c r="D412">
+      <c r="C412">
         <v>832272</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B413">
         <v>363</v>
       </c>
-      <c r="C413" s="1">
-        <v>552</v>
-      </c>
-      <c r="D413">
+      <c r="C413">
         <v>832635</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B414">
         <v>443</v>
       </c>
-      <c r="C414" s="1">
-        <v>464</v>
-      </c>
-      <c r="D414">
+      <c r="C414">
         <v>833078</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B415">
         <v>492</v>
       </c>
-      <c r="C415" s="1">
-        <v>429</v>
-      </c>
-      <c r="D415">
+      <c r="C415">
         <v>833570</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B416">
         <v>334</v>
       </c>
-      <c r="C416" s="1">
-        <v>431</v>
-      </c>
-      <c r="D416">
+      <c r="C416">
         <v>833904</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B417">
         <v>418</v>
       </c>
-      <c r="C417" s="1">
-        <v>358</v>
-      </c>
-      <c r="D417">
+      <c r="C417">
         <v>834322</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B418">
         <v>124</v>
       </c>
-      <c r="C418" s="1">
-        <v>344</v>
-      </c>
-      <c r="D418">
+      <c r="C418">
         <v>834446</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B419">
         <v>196</v>
       </c>
-      <c r="C419" s="1">
-        <v>329</v>
-      </c>
-      <c r="D419">
+      <c r="C419">
         <v>834642</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B420">
         <v>380</v>
       </c>
-      <c r="C420" s="1">
-        <v>338</v>
-      </c>
-      <c r="D420">
+      <c r="C420">
         <v>835022</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B421">
         <v>305</v>
       </c>
-      <c r="C421" s="1">
-        <v>341</v>
-      </c>
-      <c r="D421">
+      <c r="C421">
         <v>835327</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B422">
         <v>276</v>
       </c>
-      <c r="C422" s="1">
-        <v>321</v>
-      </c>
-      <c r="D422">
+      <c r="C422">
         <v>835603</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B423">
         <v>212</v>
       </c>
-      <c r="C423" s="1">
-        <v>290</v>
-      </c>
-      <c r="D423">
+      <c r="C423">
         <v>835815</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B424">
         <v>223</v>
       </c>
-      <c r="C424" s="1">
-        <v>273</v>
-      </c>
-      <c r="D424">
+      <c r="C424">
         <v>836038</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B425">
         <v>86</v>
       </c>
-      <c r="C425" s="1">
-        <v>245</v>
-      </c>
-      <c r="D425">
+      <c r="C425">
         <v>836124</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B426">
         <v>139</v>
       </c>
-      <c r="C426" s="1">
-        <v>239</v>
-      </c>
-      <c r="D426">
+      <c r="C426">
         <v>836263</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B427">
         <v>221</v>
       </c>
-      <c r="C427" s="1">
-        <v>231</v>
-      </c>
-      <c r="D427">
+      <c r="C427">
         <v>836484</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B428">
         <v>200</v>
       </c>
-      <c r="C428" s="1">
-        <v>208</v>
-      </c>
-      <c r="D428">
+      <c r="C428">
         <v>836684</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B429">
         <v>197</v>
       </c>
-      <c r="C429" s="1">
-        <v>193</v>
-      </c>
-      <c r="D429">
+      <c r="C429">
         <v>836881</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B430">
         <v>95</v>
       </c>
-      <c r="C430" s="1">
-        <v>182</v>
-      </c>
-      <c r="D430">
+      <c r="C430">
         <v>836976</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B431">
         <v>108</v>
       </c>
-      <c r="C431" s="1">
-        <v>165</v>
-      </c>
-      <c r="D431">
+      <c r="C431">
         <v>837084</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B432">
         <v>83</v>
       </c>
-      <c r="C432" s="1">
-        <v>149</v>
-      </c>
-      <c r="D432">
+      <c r="C432">
         <v>837167</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B433">
         <v>141</v>
       </c>
-      <c r="C433" s="1">
-        <v>149</v>
-      </c>
-      <c r="D433">
+      <c r="C433">
         <v>837308</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B434">
         <v>131</v>
       </c>
-      <c r="C434" s="1">
-        <v>149</v>
-      </c>
-      <c r="D434">
+      <c r="C434">
         <v>837439</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B435">
         <v>153</v>
       </c>
-      <c r="C435" s="1">
-        <v>136</v>
-      </c>
-      <c r="D435">
+      <c r="C435">
         <v>837592</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B436">
         <v>114</v>
       </c>
-      <c r="C436" s="1">
-        <v>129</v>
-      </c>
-      <c r="D436">
+      <c r="C436">
         <v>837706</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B437">
         <v>129</v>
       </c>
-      <c r="C437" s="1">
-        <v>117</v>
-      </c>
-      <c r="D437">
+      <c r="C437">
         <v>837835</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B438">
         <v>109</v>
       </c>
-      <c r="C438" s="1">
-        <v>122</v>
-      </c>
-      <c r="D438">
+      <c r="C438">
         <v>837944</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B439">
         <v>38</v>
       </c>
-      <c r="C439" s="1">
-        <v>122</v>
-      </c>
-      <c r="D439">
+      <c r="C439">
         <v>837982</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B440">
         <v>24</v>
       </c>
-      <c r="C440" s="1">
-        <v>116</v>
-      </c>
-      <c r="D440">
+      <c r="C440">
         <v>838006</v>
       </c>
     </row>
@@ -8532,7 +7194,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C1 A2:B2 D2 A3:D441" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:D441 D2 A2:B2 C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>